--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.711052490666674</v>
+        <v>0.8207344373418597</v>
       </c>
       <c r="D2">
-        <v>0.4771504735323764</v>
+        <v>0.4206022288774065</v>
       </c>
       <c r="E2">
         <v>0.7929350676729781</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1967144148165219</v>
+        <v>-0.2266141011163793</v>
       </c>
       <c r="D3">
-        <v>0.8440748368487903</v>
+        <v>0.8228161983829092</v>
       </c>
       <c r="E3">
         <v>0.7929350676729781</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.02027482263568583</v>
+        <v>-0.0245816830241006</v>
       </c>
       <c r="D4">
-        <v>0.9838265493204812</v>
+        <v>0.9806102377976431</v>
       </c>
       <c r="E4">
         <v>0.7929350676729781</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.838463840336399</v>
+        <v>-0.7679388849952241</v>
       </c>
       <c r="D5">
-        <v>0.4018895966510745</v>
+        <v>0.4506881021785074</v>
       </c>
       <c r="E5">
         <v>0.7929350676729781</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.8455793668890274</v>
+        <v>-0.8943088364541603</v>
       </c>
       <c r="D6">
-        <v>0.3979079243160373</v>
+        <v>0.3808366127364795</v>
       </c>
       <c r="E6">
         <v>0.7737466259148358</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.6159233650234009</v>
+        <v>-0.7048067675440354</v>
       </c>
       <c r="D7">
-        <v>0.5380285855548681</v>
+        <v>0.488325626502575</v>
       </c>
       <c r="E7">
         <v>0.7737466259148358</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.434207232844053</v>
+        <v>-1.219960386409304</v>
       </c>
       <c r="D8">
-        <v>0.1516993463592187</v>
+        <v>0.2353968525529808</v>
       </c>
       <c r="E8">
         <v>0.7737466259148358</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1652422839419772</v>
+        <v>0.1767923057381978</v>
       </c>
       <c r="D9">
-        <v>0.8687731773459242</v>
+        <v>0.8612889956690943</v>
       </c>
       <c r="E9">
         <v>0.7988084172228836</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5942977405560282</v>
+        <v>-0.5603726197123842</v>
       </c>
       <c r="D10">
-        <v>0.552393056681743</v>
+        <v>0.5808876297474559</v>
       </c>
       <c r="E10">
         <v>0.7988084172228836</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.754468770401244</v>
+        <v>-0.6244687684214789</v>
       </c>
       <c r="D11">
-        <v>0.4506735938772208</v>
+        <v>0.5387426069877468</v>
       </c>
       <c r="E11">
         <v>0.7935633493271302</v>
